--- a/biology/Zoologie/Conus_eldredi/Conus_eldredi.xlsx
+++ b/biology/Zoologie/Conus_eldredi/Conus_eldredi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus eldredi est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 45 mm et 65 mm.
 </t>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce se trouve à divers endroits du sud de l'Océan Pacifique, comme près de l'Indonésie et de la Polynésie française[1]. 
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve dans la majeure partie du Pacifique central, de l'archipel des Tuamotu en Polynésie française, aux îles Cook et aux îles Marshall, aux îles Wake et à Guam au nord, ainsi qu'aux îles Salomon. Bien que cette espèce ait une aire de répartition assez large dans le Pacifique central, et qu'elle ne soit pas connue pour avoir des menaces majeures, son extrême rareté indique un besoin de recherche supplémentaire sur l'abondance et elle est donc classée dans la catégorie Données insuffisantes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se trouve à divers endroits du sud de l'Océan Pacifique, comme près de l'Indonésie et de la Polynésie française. 
 </t>
         </is>
       </c>
@@ -573,21 +587,132 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve dans la majeure partie du Pacifique central, de l'archipel des Tuamotu en Polynésie française, aux îles Cook et aux îles Marshall, aux îles Wake et à Guam au nord, ainsi qu'aux îles Salomon. Bien que cette espèce ait une aire de répartition assez large dans le Pacifique central, et qu'elle ne soit pas connue pour avoir des menaces majeures, son extrême rareté indique un besoin de recherche supplémentaire sur l'abondance et elle est donc classée dans la catégorie Données insuffisantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_eldredi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_eldredi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus eldredi a été décrite pour la première fois en 1955 par le malacologiste américain Joseph Paul Eldred Morrison (d) (1906–1983)[3] dans la publication intitulée « Journal of the Washington Academy of Science »[4],[5].
-Synonymes
-Conus (Gastridium) eldredi J. P. E. Morrison, 1955 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus eldredi a été décrite pour la première fois en 1955 par le malacologiste américain Joseph Paul Eldred Morrison (d) (1906–1983) dans la publication intitulée « Journal of the Washington Academy of Science »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_eldredi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_eldredi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Gastridium) eldredi J. P. E. Morrison, 1955 · appellation alternative
 Conus geographus var. rosea G. B. Sowerby I, 1833 · non accepté
 Conus intermedius Reeve, 1843 · non accepté
 Conus mappa Crosse, 1858 · non accepté
-Gastridium eldredi (J. P. E. Morrison, 1955) · non accepté
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus eldredi dans les principales bases sont les suivants :
+Gastridium eldredi (J. P. E. Morrison, 1955) · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conus_eldredi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_eldredi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus eldredi dans les principales bases sont les suivants :
 CoL : XXBV - GBIF : 6509962 - iNaturalist : 431949 - IRMNG : 11811409 - NCBI : 528169 - TAXREF : 91980 - UICN : 192615 - WoRMS : 428985
 </t>
         </is>
